--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,9 +389,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P272"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12962,17 +12962,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="73.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -13026,8 +13028,8 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>-2^15</f>
-        <v>-32768</v>
+        <f>-2^31</f>
+        <v>-2147483648</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13038,7 +13040,7 @@
       </c>
       <c r="E2">
         <f>B$2</f>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F2">
         <f>C2</f>
@@ -13046,7 +13048,7 @@
       </c>
       <c r="G2">
         <f>D2+E2</f>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="H2">
         <f>MOD(G2,F2)</f>
@@ -13054,11 +13056,11 @@
       </c>
       <c r="I2">
         <f>G2/F2</f>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J65" si="1">F2*I2+H2</f>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="K2" t="str">
         <f>IF(J2=G2, "Yes", "No")</f>
@@ -13074,7 +13076,7 @@
       </c>
       <c r="N2" t="str">
         <f t="shared" ref="N2:N65" si="2">"testModAddSub16(" &amp; D2 &amp; ", " &amp; E2 &amp; ", " &amp; F2 &amp; ", " &amp; H2 &amp; ", " &amp; I2 &amp; ", " &amp; IF(M2="Fail", "false", "true") &amp; ");" &amp; IF(M2&lt;&gt;"", "  // Failing Case", "")</f>
-        <v>testModAddSub16(0, -32768, 1, 0, -32768, true);</v>
+        <v>testModAddSub16(0, -2147483648, 1, 0, -2147483648, true);</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -13093,7 +13095,7 @@
       </c>
       <c r="E3">
         <f>E2</f>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F3">
         <f>F2</f>
@@ -13101,7 +13103,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="3">D3+E3</f>
-        <v>-32767</v>
+        <v>-2147483647</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" si="4">MOD(G3,F3)</f>
@@ -13109,11 +13111,11 @@
       </c>
       <c r="I3">
         <f>G3/F3</f>
-        <v>-32767</v>
+        <v>-2147483647</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>-32767</v>
+        <v>-2147483647</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K66" si="5">IF(J3=G3, "Yes", "No")</f>
@@ -13129,7 +13131,7 @@
       </c>
       <c r="N3" t="str">
         <f t="shared" si="2"/>
-        <v>testModAddSub16(1, -32768, 1, 0, -32767, true);</v>
+        <v>testModAddSub16(1, -2147483648, 1, 0, -2147483647, true);</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -13149,7 +13151,7 @@
       </c>
       <c r="E4">
         <f t="shared" ref="E4:F19" si="7">E3</f>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F4">
         <f t="shared" si="7"/>
@@ -13157,7 +13159,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
-        <v>-31770</v>
+        <v>-2147482650</v>
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
@@ -13165,11 +13167,11 @@
       </c>
       <c r="I4">
         <f>G4/F4</f>
-        <v>-31770</v>
+        <v>-2147482650</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>-31770</v>
+        <v>-2147482650</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="5"/>
@@ -13185,7 +13187,7 @@
       </c>
       <c r="N4" t="str">
         <f t="shared" si="2"/>
-        <v>testModAddSub16(998, -32768, 1, 0, -31770, true);</v>
+        <v>testModAddSub16(998, -2147483648, 1, 0, -2147482650, true);</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -13201,7 +13203,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="7"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F5">
         <f t="shared" si="7"/>
@@ -13209,7 +13211,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>-31769</v>
+        <v>-2147482649</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
@@ -13217,11 +13219,11 @@
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I68" si="10">INT(G5/F5)</f>
-        <v>-31769</v>
+        <v>-2147482649</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>-31769</v>
+        <v>-2147482649</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="5"/>
@@ -13237,7 +13239,7 @@
       </c>
       <c r="N5" t="str">
         <f t="shared" si="2"/>
-        <v>testModAddSub16(999, -32768, 1, 0, -31769, true);</v>
+        <v>testModAddSub16(999, -2147483648, 1, 0, -2147482649, true);</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -13253,7 +13255,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="7"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F6">
         <f t="shared" si="7"/>
@@ -13261,7 +13263,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>-31768</v>
+        <v>-2147482648</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
@@ -13269,11 +13271,11 @@
       </c>
       <c r="I6">
         <f t="shared" si="10"/>
-        <v>-31768</v>
+        <v>-2147482648</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>-31768</v>
+        <v>-2147482648</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="5"/>
@@ -13289,7 +13291,7 @@
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v>testModAddSub16(1000, -32768, 1, 0, -31768, true);</v>
+        <v>testModAddSub16(1000, -2147483648, 1, 0, -2147482648, true);</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -13306,7 +13308,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="7"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F7">
         <f t="shared" si="7"/>
@@ -13314,7 +13316,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-2147450881</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
@@ -13322,11 +13324,11 @@
       </c>
       <c r="I7">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>-2147450881</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2147450881</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="5"/>
@@ -13342,7 +13344,7 @@
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
-        <v>testModAddSub16(32767, -32768, 1, 0, -1, true);</v>
+        <v>testModAddSub16(32767, -2147483648, 1, 0, -2147450881, true);</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -13739,8 +13741,8 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f>2^15-1</f>
-        <v>32767</v>
+        <f>2^31-1</f>
+        <v>2147483647</v>
       </c>
       <c r="D16">
         <f t="shared" si="11"/>
@@ -16968,7 +16970,7 @@
       </c>
       <c r="E86">
         <f>B16</f>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F86">
         <f t="shared" si="24"/>
@@ -16976,7 +16978,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="16"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="H86">
         <f t="shared" si="17"/>
@@ -16984,11 +16986,11 @@
       </c>
       <c r="I86">
         <f t="shared" si="22"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="J86">
         <f t="shared" si="14"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="K86" t="str">
         <f t="shared" si="18"/>
@@ -17004,7 +17006,7 @@
       </c>
       <c r="N86" t="str">
         <f t="shared" si="15"/>
-        <v>testModAddSub16(0, 32767, 1, 0, 32767, true);</v>
+        <v>testModAddSub16(0, 2147483647, 1, 0, 2147483647, true);</v>
       </c>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
@@ -17014,7 +17016,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="24"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F87">
         <f t="shared" si="24"/>
@@ -17022,7 +17024,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="16"/>
-        <v>32768</v>
+        <v>2147483648</v>
       </c>
       <c r="H87">
         <f t="shared" si="17"/>
@@ -17030,11 +17032,11 @@
       </c>
       <c r="I87">
         <f t="shared" si="22"/>
-        <v>32768</v>
+        <v>2147483648</v>
       </c>
       <c r="J87">
         <f t="shared" si="14"/>
-        <v>32768</v>
+        <v>2147483648</v>
       </c>
       <c r="K87" t="str">
         <f t="shared" si="18"/>
@@ -17046,11 +17048,11 @@
       </c>
       <c r="M87" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N87" t="str">
         <f t="shared" si="15"/>
-        <v>testModAddSub16(1, 32767, 1, 0, 32768, true);</v>
+        <v>testModAddSub16(1, 2147483647, 1, 0, 2147483648, false);  // Failing Case</v>
       </c>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.25">
@@ -17060,7 +17062,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="24"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F88">
         <f t="shared" si="24"/>
@@ -17068,7 +17070,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="16"/>
-        <v>33765</v>
+        <v>2147484645</v>
       </c>
       <c r="H88">
         <f t="shared" si="17"/>
@@ -17076,11 +17078,11 @@
       </c>
       <c r="I88">
         <f t="shared" si="22"/>
-        <v>33765</v>
+        <v>2147484645</v>
       </c>
       <c r="J88">
         <f t="shared" si="14"/>
-        <v>33765</v>
+        <v>2147484645</v>
       </c>
       <c r="K88" t="str">
         <f t="shared" si="18"/>
@@ -17092,11 +17094,11 @@
       </c>
       <c r="M88" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N88" t="str">
         <f t="shared" si="15"/>
-        <v>testModAddSub16(998, 32767, 1, 0, 33765, true);</v>
+        <v>testModAddSub16(998, 2147483647, 1, 0, 2147484645, false);  // Failing Case</v>
       </c>
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.25">
@@ -17106,7 +17108,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="24"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F89">
         <f t="shared" si="24"/>
@@ -17114,7 +17116,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="16"/>
-        <v>33766</v>
+        <v>2147484646</v>
       </c>
       <c r="H89">
         <f t="shared" si="17"/>
@@ -17122,11 +17124,11 @@
       </c>
       <c r="I89">
         <f t="shared" si="22"/>
-        <v>33766</v>
+        <v>2147484646</v>
       </c>
       <c r="J89">
         <f t="shared" si="14"/>
-        <v>33766</v>
+        <v>2147484646</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" si="18"/>
@@ -17138,11 +17140,11 @@
       </c>
       <c r="M89" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N89" t="str">
         <f t="shared" si="15"/>
-        <v>testModAddSub16(999, 32767, 1, 0, 33766, true);</v>
+        <v>testModAddSub16(999, 2147483647, 1, 0, 2147484646, false);  // Failing Case</v>
       </c>
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.25">
@@ -17152,7 +17154,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="24"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F90">
         <f t="shared" si="24"/>
@@ -17160,7 +17162,7 @@
       </c>
       <c r="G90">
         <f t="shared" si="16"/>
-        <v>33767</v>
+        <v>2147484647</v>
       </c>
       <c r="H90">
         <f t="shared" si="17"/>
@@ -17168,11 +17170,11 @@
       </c>
       <c r="I90">
         <f t="shared" si="22"/>
-        <v>33767</v>
+        <v>2147484647</v>
       </c>
       <c r="J90">
         <f t="shared" si="14"/>
-        <v>33767</v>
+        <v>2147484647</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" si="18"/>
@@ -17184,11 +17186,11 @@
       </c>
       <c r="M90" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N90" t="str">
         <f t="shared" si="15"/>
-        <v>testModAddSub16(1000, 32767, 1, 0, 33767, true);</v>
+        <v>testModAddSub16(1000, 2147483647, 1, 0, 2147484647, false);  // Failing Case</v>
       </c>
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.25">
@@ -17198,7 +17200,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="24"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F91">
         <f t="shared" si="24"/>
@@ -17206,7 +17208,7 @@
       </c>
       <c r="G91">
         <f t="shared" si="16"/>
-        <v>65534</v>
+        <v>2147516414</v>
       </c>
       <c r="H91">
         <f t="shared" si="17"/>
@@ -17214,11 +17216,11 @@
       </c>
       <c r="I91">
         <f t="shared" si="22"/>
-        <v>65534</v>
+        <v>2147516414</v>
       </c>
       <c r="J91">
         <f t="shared" si="14"/>
-        <v>65534</v>
+        <v>2147516414</v>
       </c>
       <c r="K91" t="str">
         <f t="shared" si="18"/>
@@ -17230,11 +17232,11 @@
       </c>
       <c r="M91" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N91" t="str">
         <f t="shared" si="15"/>
-        <v>testModAddSub16(32767, 32767, 1, 0, 65534, true);</v>
+        <v>testModAddSub16(32767, 2147483647, 1, 0, 2147516414, false);  // Failing Case</v>
       </c>
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.25">
@@ -17244,7 +17246,7 @@
       </c>
       <c r="E92">
         <f>E2</f>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F92">
         <f>C3</f>
@@ -17252,19 +17254,19 @@
       </c>
       <c r="G92">
         <f t="shared" si="16"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="H92">
         <f t="shared" si="17"/>
-        <v>232</v>
+        <v>352</v>
       </c>
       <c r="I92">
         <f>INT(G92/F92)</f>
-        <v>-33</v>
+        <v>-2147484</v>
       </c>
       <c r="J92">
         <f>F92*I92+H92</f>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="K92" t="str">
         <f t="shared" si="18"/>
@@ -17280,7 +17282,7 @@
       </c>
       <c r="N92" t="str">
         <f t="shared" si="15"/>
-        <v>testModAddSub16(0, -32768, 1000, 232, -33, true);</v>
+        <v>testModAddSub16(0, -2147483648, 1000, 352, -2147484, true);</v>
       </c>
     </row>
     <row r="93" spans="4:14" x14ac:dyDescent="0.25">
@@ -17290,7 +17292,7 @@
       </c>
       <c r="E93">
         <f t="shared" ref="E93:E156" si="25">E3</f>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F93">
         <f t="shared" si="24"/>
@@ -17298,19 +17300,19 @@
       </c>
       <c r="G93">
         <f t="shared" si="16"/>
-        <v>-32767</v>
+        <v>-2147483647</v>
       </c>
       <c r="H93">
         <f t="shared" si="17"/>
-        <v>233</v>
+        <v>353</v>
       </c>
       <c r="I93">
         <f t="shared" ref="I93:I156" si="26">INT(G93/F93)</f>
-        <v>-33</v>
+        <v>-2147484</v>
       </c>
       <c r="J93">
         <f t="shared" ref="J93:J156" si="27">F93*I93+H93</f>
-        <v>-32767</v>
+        <v>-2147483647</v>
       </c>
       <c r="K93" t="str">
         <f t="shared" si="18"/>
@@ -17326,7 +17328,7 @@
       </c>
       <c r="N93" t="str">
         <f t="shared" si="15"/>
-        <v>testModAddSub16(1, -32768, 1000, 233, -33, true);</v>
+        <v>testModAddSub16(1, -2147483648, 1000, 353, -2147484, true);</v>
       </c>
     </row>
     <row r="94" spans="4:14" x14ac:dyDescent="0.25">
@@ -17336,7 +17338,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="25"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F94">
         <f t="shared" si="24"/>
@@ -17344,19 +17346,19 @@
       </c>
       <c r="G94">
         <f t="shared" si="16"/>
-        <v>-31770</v>
+        <v>-2147482650</v>
       </c>
       <c r="H94">
         <f t="shared" si="17"/>
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="I94">
         <f t="shared" si="26"/>
-        <v>-32</v>
+        <v>-2147483</v>
       </c>
       <c r="J94">
         <f t="shared" si="27"/>
-        <v>-31770</v>
+        <v>-2147482650</v>
       </c>
       <c r="K94" t="str">
         <f t="shared" si="18"/>
@@ -17372,7 +17374,7 @@
       </c>
       <c r="N94" t="str">
         <f t="shared" si="15"/>
-        <v>testModAddSub16(998, -32768, 1000, 230, -32, true);</v>
+        <v>testModAddSub16(998, -2147483648, 1000, 350, -2147483, true);</v>
       </c>
     </row>
     <row r="95" spans="4:14" x14ac:dyDescent="0.25">
@@ -17382,7 +17384,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="25"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F95">
         <f t="shared" si="24"/>
@@ -17390,19 +17392,19 @@
       </c>
       <c r="G95">
         <f t="shared" si="16"/>
-        <v>-31769</v>
+        <v>-2147482649</v>
       </c>
       <c r="H95">
         <f t="shared" si="17"/>
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="I95">
         <f t="shared" si="26"/>
-        <v>-32</v>
+        <v>-2147483</v>
       </c>
       <c r="J95">
         <f t="shared" si="27"/>
-        <v>-31769</v>
+        <v>-2147482649</v>
       </c>
       <c r="K95" t="str">
         <f t="shared" si="18"/>
@@ -17418,7 +17420,7 @@
       </c>
       <c r="N95" t="str">
         <f t="shared" si="15"/>
-        <v>testModAddSub16(999, -32768, 1000, 231, -32, true);</v>
+        <v>testModAddSub16(999, -2147483648, 1000, 351, -2147483, true);</v>
       </c>
     </row>
     <row r="96" spans="4:14" x14ac:dyDescent="0.25">
@@ -17428,7 +17430,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="25"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F96">
         <f t="shared" si="24"/>
@@ -17436,19 +17438,19 @@
       </c>
       <c r="G96">
         <f t="shared" si="16"/>
-        <v>-31768</v>
+        <v>-2147482648</v>
       </c>
       <c r="H96">
         <f t="shared" si="17"/>
-        <v>232</v>
+        <v>352</v>
       </c>
       <c r="I96">
         <f t="shared" si="26"/>
-        <v>-32</v>
+        <v>-2147483</v>
       </c>
       <c r="J96">
         <f t="shared" si="27"/>
-        <v>-31768</v>
+        <v>-2147482648</v>
       </c>
       <c r="K96" t="str">
         <f t="shared" si="18"/>
@@ -17464,7 +17466,7 @@
       </c>
       <c r="N96" t="str">
         <f t="shared" si="15"/>
-        <v>testModAddSub16(1000, -32768, 1000, 232, -32, true);</v>
+        <v>testModAddSub16(1000, -2147483648, 1000, 352, -2147483, true);</v>
       </c>
     </row>
     <row r="97" spans="4:14" x14ac:dyDescent="0.25">
@@ -17474,7 +17476,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="25"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F97">
         <f t="shared" si="24"/>
@@ -17482,19 +17484,19 @@
       </c>
       <c r="G97">
         <f t="shared" si="16"/>
-        <v>-1</v>
+        <v>-2147450881</v>
       </c>
       <c r="H97">
         <f t="shared" si="17"/>
-        <v>999</v>
+        <v>119</v>
       </c>
       <c r="I97">
         <f t="shared" si="26"/>
-        <v>-1</v>
+        <v>-2147451</v>
       </c>
       <c r="J97">
         <f t="shared" si="27"/>
-        <v>-1</v>
+        <v>-2147450881</v>
       </c>
       <c r="K97" t="str">
         <f t="shared" si="18"/>
@@ -17510,7 +17512,7 @@
       </c>
       <c r="N97" t="str">
         <f t="shared" si="15"/>
-        <v>testModAddSub16(32767, -32768, 1000, 999, -1, true);</v>
+        <v>testModAddSub16(32767, -2147483648, 1000, 119, -2147451, true);</v>
       </c>
     </row>
     <row r="98" spans="4:14" x14ac:dyDescent="0.25">
@@ -21108,7 +21110,7 @@
       </c>
       <c r="E176">
         <f t="shared" si="36"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F176">
         <f t="shared" si="39"/>
@@ -21116,19 +21118,19 @@
       </c>
       <c r="G176">
         <f t="shared" si="30"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="H176">
         <f t="shared" si="31"/>
-        <v>767</v>
+        <v>647</v>
       </c>
       <c r="I176">
         <f t="shared" si="37"/>
-        <v>32</v>
+        <v>2147483</v>
       </c>
       <c r="J176">
         <f t="shared" si="38"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="K176" t="str">
         <f t="shared" si="32"/>
@@ -21144,7 +21146,7 @@
       </c>
       <c r="N176" t="str">
         <f t="shared" si="29"/>
-        <v>testModAddSub16(0, 32767, 1000, 767, 32, true);</v>
+        <v>testModAddSub16(0, 2147483647, 1000, 647, 2147483, true);</v>
       </c>
     </row>
     <row r="177" spans="4:14" x14ac:dyDescent="0.25">
@@ -21154,7 +21156,7 @@
       </c>
       <c r="E177">
         <f t="shared" si="36"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F177">
         <f t="shared" si="39"/>
@@ -21162,19 +21164,19 @@
       </c>
       <c r="G177">
         <f t="shared" si="30"/>
-        <v>32768</v>
+        <v>2147483648</v>
       </c>
       <c r="H177">
         <f t="shared" si="31"/>
-        <v>768</v>
+        <v>648</v>
       </c>
       <c r="I177">
         <f t="shared" si="37"/>
-        <v>32</v>
+        <v>2147483</v>
       </c>
       <c r="J177">
         <f t="shared" si="38"/>
-        <v>32768</v>
+        <v>2147483648</v>
       </c>
       <c r="K177" t="str">
         <f t="shared" si="32"/>
@@ -21186,11 +21188,11 @@
       </c>
       <c r="M177" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N177" t="str">
         <f t="shared" si="29"/>
-        <v>testModAddSub16(1, 32767, 1000, 768, 32, true);</v>
+        <v>testModAddSub16(1, 2147483647, 1000, 648, 2147483, false);  // Failing Case</v>
       </c>
     </row>
     <row r="178" spans="4:14" x14ac:dyDescent="0.25">
@@ -21200,7 +21202,7 @@
       </c>
       <c r="E178">
         <f t="shared" si="36"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F178">
         <f t="shared" si="39"/>
@@ -21208,19 +21210,19 @@
       </c>
       <c r="G178">
         <f t="shared" si="30"/>
-        <v>33765</v>
+        <v>2147484645</v>
       </c>
       <c r="H178">
         <f t="shared" si="31"/>
-        <v>765</v>
+        <v>645</v>
       </c>
       <c r="I178">
         <f t="shared" si="37"/>
-        <v>33</v>
+        <v>2147484</v>
       </c>
       <c r="J178">
         <f t="shared" si="38"/>
-        <v>33765</v>
+        <v>2147484645</v>
       </c>
       <c r="K178" t="str">
         <f t="shared" si="32"/>
@@ -21232,11 +21234,11 @@
       </c>
       <c r="M178" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N178" t="str">
         <f t="shared" si="29"/>
-        <v>testModAddSub16(998, 32767, 1000, 765, 33, true);</v>
+        <v>testModAddSub16(998, 2147483647, 1000, 645, 2147484, false);  // Failing Case</v>
       </c>
     </row>
     <row r="179" spans="4:14" x14ac:dyDescent="0.25">
@@ -21246,7 +21248,7 @@
       </c>
       <c r="E179">
         <f t="shared" si="36"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F179">
         <f t="shared" si="39"/>
@@ -21254,19 +21256,19 @@
       </c>
       <c r="G179">
         <f t="shared" si="30"/>
-        <v>33766</v>
+        <v>2147484646</v>
       </c>
       <c r="H179">
         <f t="shared" si="31"/>
-        <v>766</v>
+        <v>646</v>
       </c>
       <c r="I179">
         <f t="shared" si="37"/>
-        <v>33</v>
+        <v>2147484</v>
       </c>
       <c r="J179">
         <f t="shared" si="38"/>
-        <v>33766</v>
+        <v>2147484646</v>
       </c>
       <c r="K179" t="str">
         <f t="shared" si="32"/>
@@ -21278,11 +21280,11 @@
       </c>
       <c r="M179" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N179" t="str">
         <f t="shared" si="29"/>
-        <v>testModAddSub16(999, 32767, 1000, 766, 33, true);</v>
+        <v>testModAddSub16(999, 2147483647, 1000, 646, 2147484, false);  // Failing Case</v>
       </c>
     </row>
     <row r="180" spans="4:14" x14ac:dyDescent="0.25">
@@ -21292,7 +21294,7 @@
       </c>
       <c r="E180">
         <f t="shared" si="36"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F180">
         <f t="shared" si="39"/>
@@ -21300,19 +21302,19 @@
       </c>
       <c r="G180">
         <f t="shared" si="30"/>
-        <v>33767</v>
+        <v>2147484647</v>
       </c>
       <c r="H180">
         <f t="shared" si="31"/>
-        <v>767</v>
+        <v>647</v>
       </c>
       <c r="I180">
         <f t="shared" si="37"/>
-        <v>33</v>
+        <v>2147484</v>
       </c>
       <c r="J180">
         <f t="shared" si="38"/>
-        <v>33767</v>
+        <v>2147484647</v>
       </c>
       <c r="K180" t="str">
         <f t="shared" si="32"/>
@@ -21324,11 +21326,11 @@
       </c>
       <c r="M180" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N180" t="str">
         <f t="shared" si="29"/>
-        <v>testModAddSub16(1000, 32767, 1000, 767, 33, true);</v>
+        <v>testModAddSub16(1000, 2147483647, 1000, 647, 2147484, false);  // Failing Case</v>
       </c>
     </row>
     <row r="181" spans="4:14" x14ac:dyDescent="0.25">
@@ -21338,7 +21340,7 @@
       </c>
       <c r="E181">
         <f t="shared" si="36"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F181">
         <f t="shared" si="39"/>
@@ -21346,19 +21348,19 @@
       </c>
       <c r="G181">
         <f t="shared" si="30"/>
-        <v>65534</v>
+        <v>2147516414</v>
       </c>
       <c r="H181">
         <f t="shared" si="31"/>
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="I181">
         <f t="shared" si="37"/>
-        <v>65</v>
+        <v>2147516</v>
       </c>
       <c r="J181">
         <f t="shared" si="38"/>
-        <v>65534</v>
+        <v>2147516414</v>
       </c>
       <c r="K181" t="str">
         <f t="shared" si="32"/>
@@ -21370,11 +21372,11 @@
       </c>
       <c r="M181" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N181" t="str">
         <f t="shared" si="29"/>
-        <v>testModAddSub16(32767, 32767, 1000, 534, 65, true);</v>
+        <v>testModAddSub16(32767, 2147483647, 1000, 414, 2147516, false);  // Failing Case</v>
       </c>
     </row>
     <row r="182" spans="4:14" x14ac:dyDescent="0.25">
@@ -21384,7 +21386,7 @@
       </c>
       <c r="E182">
         <f t="shared" si="36"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F182">
         <f>C4</f>
@@ -21392,19 +21394,19 @@
       </c>
       <c r="G182">
         <f t="shared" si="30"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="H182">
         <f t="shared" si="31"/>
-        <v>32766</v>
+        <v>32765</v>
       </c>
       <c r="I182">
         <f t="shared" si="37"/>
-        <v>-2</v>
+        <v>-65539</v>
       </c>
       <c r="J182">
         <f t="shared" si="38"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="K182" t="str">
         <f t="shared" si="32"/>
@@ -21420,7 +21422,7 @@
       </c>
       <c r="N182" t="str">
         <f t="shared" si="29"/>
-        <v>testModAddSub16(0, -32768, 32767, 32766, -2, true);</v>
+        <v>testModAddSub16(0, -2147483648, 32767, 32765, -65539, true);</v>
       </c>
     </row>
     <row r="183" spans="4:14" x14ac:dyDescent="0.25">
@@ -21430,7 +21432,7 @@
       </c>
       <c r="E183">
         <f t="shared" si="36"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F183">
         <f t="shared" si="39"/>
@@ -21438,19 +21440,19 @@
       </c>
       <c r="G183">
         <f t="shared" si="30"/>
-        <v>-32767</v>
+        <v>-2147483647</v>
       </c>
       <c r="H183">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>32766</v>
       </c>
       <c r="I183">
         <f t="shared" si="37"/>
-        <v>-1</v>
+        <v>-65539</v>
       </c>
       <c r="J183">
         <f t="shared" si="38"/>
-        <v>-32767</v>
+        <v>-2147483647</v>
       </c>
       <c r="K183" t="str">
         <f t="shared" si="32"/>
@@ -21466,7 +21468,7 @@
       </c>
       <c r="N183" t="str">
         <f t="shared" si="29"/>
-        <v>testModAddSub16(1, -32768, 32767, 0, -1, true);</v>
+        <v>testModAddSub16(1, -2147483648, 32767, 32766, -65539, true);</v>
       </c>
     </row>
     <row r="184" spans="4:14" x14ac:dyDescent="0.25">
@@ -21476,7 +21478,7 @@
       </c>
       <c r="E184">
         <f t="shared" si="36"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F184">
         <f t="shared" si="39"/>
@@ -21484,19 +21486,19 @@
       </c>
       <c r="G184">
         <f t="shared" si="30"/>
-        <v>-31770</v>
+        <v>-2147482650</v>
       </c>
       <c r="H184">
         <f t="shared" si="31"/>
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I184">
         <f t="shared" si="37"/>
-        <v>-1</v>
+        <v>-65538</v>
       </c>
       <c r="J184">
         <f t="shared" si="38"/>
-        <v>-31770</v>
+        <v>-2147482650</v>
       </c>
       <c r="K184" t="str">
         <f t="shared" si="32"/>
@@ -21512,7 +21514,7 @@
       </c>
       <c r="N184" t="str">
         <f t="shared" si="29"/>
-        <v>testModAddSub16(998, -32768, 32767, 997, -1, true);</v>
+        <v>testModAddSub16(998, -2147483648, 32767, 996, -65538, true);</v>
       </c>
     </row>
     <row r="185" spans="4:14" x14ac:dyDescent="0.25">
@@ -21522,7 +21524,7 @@
       </c>
       <c r="E185">
         <f t="shared" si="36"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F185">
         <f t="shared" si="39"/>
@@ -21530,19 +21532,19 @@
       </c>
       <c r="G185">
         <f t="shared" si="30"/>
-        <v>-31769</v>
+        <v>-2147482649</v>
       </c>
       <c r="H185">
         <f t="shared" si="31"/>
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I185">
         <f t="shared" si="37"/>
-        <v>-1</v>
+        <v>-65538</v>
       </c>
       <c r="J185">
         <f t="shared" si="38"/>
-        <v>-31769</v>
+        <v>-2147482649</v>
       </c>
       <c r="K185" t="str">
         <f t="shared" si="32"/>
@@ -21558,7 +21560,7 @@
       </c>
       <c r="N185" t="str">
         <f t="shared" si="29"/>
-        <v>testModAddSub16(999, -32768, 32767, 998, -1, true);</v>
+        <v>testModAddSub16(999, -2147483648, 32767, 997, -65538, true);</v>
       </c>
     </row>
     <row r="186" spans="4:14" x14ac:dyDescent="0.25">
@@ -21568,7 +21570,7 @@
       </c>
       <c r="E186">
         <f t="shared" si="36"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F186">
         <f t="shared" si="39"/>
@@ -21576,19 +21578,19 @@
       </c>
       <c r="G186">
         <f t="shared" si="30"/>
-        <v>-31768</v>
+        <v>-2147482648</v>
       </c>
       <c r="H186">
         <f t="shared" si="31"/>
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I186">
         <f t="shared" si="37"/>
-        <v>-1</v>
+        <v>-65538</v>
       </c>
       <c r="J186">
         <f t="shared" si="38"/>
-        <v>-31768</v>
+        <v>-2147482648</v>
       </c>
       <c r="K186" t="str">
         <f t="shared" si="32"/>
@@ -21604,7 +21606,7 @@
       </c>
       <c r="N186" t="str">
         <f t="shared" si="29"/>
-        <v>testModAddSub16(1000, -32768, 32767, 999, -1, true);</v>
+        <v>testModAddSub16(1000, -2147483648, 32767, 998, -65538, true);</v>
       </c>
     </row>
     <row r="187" spans="4:14" x14ac:dyDescent="0.25">
@@ -21614,7 +21616,7 @@
       </c>
       <c r="E187">
         <f t="shared" si="36"/>
-        <v>-32768</v>
+        <v>-2147483648</v>
       </c>
       <c r="F187">
         <f t="shared" si="39"/>
@@ -21622,19 +21624,19 @@
       </c>
       <c r="G187">
         <f t="shared" si="30"/>
-        <v>-1</v>
+        <v>-2147450881</v>
       </c>
       <c r="H187">
         <f t="shared" si="31"/>
-        <v>32766</v>
+        <v>32765</v>
       </c>
       <c r="I187">
         <f t="shared" si="37"/>
-        <v>-1</v>
+        <v>-65538</v>
       </c>
       <c r="J187">
         <f t="shared" si="38"/>
-        <v>-1</v>
+        <v>-2147450881</v>
       </c>
       <c r="K187" t="str">
         <f t="shared" si="32"/>
@@ -21650,7 +21652,7 @@
       </c>
       <c r="N187" t="str">
         <f t="shared" si="29"/>
-        <v>testModAddSub16(32767, -32768, 32767, 32766, -1, true);</v>
+        <v>testModAddSub16(32767, -2147483648, 32767, 32765, -65538, true);</v>
       </c>
     </row>
     <row r="188" spans="4:14" x14ac:dyDescent="0.25">
@@ -25248,7 +25250,7 @@
       </c>
       <c r="E266">
         <f t="shared" si="47"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F266">
         <f t="shared" si="50"/>
@@ -25256,19 +25258,19 @@
       </c>
       <c r="G266">
         <f t="shared" si="52"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="H266">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>65538</v>
       </c>
       <c r="J266">
         <f t="shared" si="49"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="K266" t="str">
         <f t="shared" si="54"/>
@@ -25284,7 +25286,7 @@
       </c>
       <c r="N266" t="str">
         <f t="shared" si="51"/>
-        <v>testModAddSub16(0, 32767, 32767, 0, 1, true);</v>
+        <v>testModAddSub16(0, 2147483647, 32767, 1, 65538, true);</v>
       </c>
     </row>
     <row r="267" spans="4:14" x14ac:dyDescent="0.25">
@@ -25294,7 +25296,7 @@
       </c>
       <c r="E267">
         <f t="shared" si="47"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F267">
         <f t="shared" si="50"/>
@@ -25302,19 +25304,19 @@
       </c>
       <c r="G267">
         <f t="shared" si="52"/>
-        <v>32768</v>
+        <v>2147483648</v>
       </c>
       <c r="H267">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>65538</v>
       </c>
       <c r="J267">
         <f t="shared" si="49"/>
-        <v>32768</v>
+        <v>2147483648</v>
       </c>
       <c r="K267" t="str">
         <f t="shared" si="54"/>
@@ -25326,11 +25328,11 @@
       </c>
       <c r="M267" t="str">
         <f t="shared" si="56"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N267" t="str">
         <f t="shared" si="51"/>
-        <v>testModAddSub16(1, 32767, 32767, 1, 1, true);</v>
+        <v>testModAddSub16(1, 2147483647, 32767, 2, 65538, false);  // Failing Case</v>
       </c>
     </row>
     <row r="268" spans="4:14" x14ac:dyDescent="0.25">
@@ -25340,7 +25342,7 @@
       </c>
       <c r="E268">
         <f t="shared" si="47"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F268">
         <f t="shared" si="50"/>
@@ -25348,19 +25350,19 @@
       </c>
       <c r="G268">
         <f t="shared" si="52"/>
-        <v>33765</v>
+        <v>2147484645</v>
       </c>
       <c r="H268">
         <f t="shared" si="53"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="I268">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>65538</v>
       </c>
       <c r="J268">
         <f t="shared" si="49"/>
-        <v>33765</v>
+        <v>2147484645</v>
       </c>
       <c r="K268" t="str">
         <f t="shared" si="54"/>
@@ -25372,11 +25374,11 @@
       </c>
       <c r="M268" t="str">
         <f t="shared" si="56"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N268" t="str">
         <f t="shared" si="51"/>
-        <v>testModAddSub16(998, 32767, 32767, 998, 1, true);</v>
+        <v>testModAddSub16(998, 2147483647, 32767, 999, 65538, false);  // Failing Case</v>
       </c>
     </row>
     <row r="269" spans="4:14" x14ac:dyDescent="0.25">
@@ -25386,7 +25388,7 @@
       </c>
       <c r="E269">
         <f t="shared" si="47"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F269">
         <f t="shared" si="50"/>
@@ -25394,19 +25396,19 @@
       </c>
       <c r="G269">
         <f t="shared" si="52"/>
-        <v>33766</v>
+        <v>2147484646</v>
       </c>
       <c r="H269">
         <f t="shared" si="53"/>
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="I269">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>65538</v>
       </c>
       <c r="J269">
         <f t="shared" si="49"/>
-        <v>33766</v>
+        <v>2147484646</v>
       </c>
       <c r="K269" t="str">
         <f t="shared" si="54"/>
@@ -25418,11 +25420,11 @@
       </c>
       <c r="M269" t="str">
         <f t="shared" si="56"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N269" t="str">
         <f t="shared" si="51"/>
-        <v>testModAddSub16(999, 32767, 32767, 999, 1, true);</v>
+        <v>testModAddSub16(999, 2147483647, 32767, 1000, 65538, false);  // Failing Case</v>
       </c>
     </row>
     <row r="270" spans="4:14" x14ac:dyDescent="0.25">
@@ -25432,7 +25434,7 @@
       </c>
       <c r="E270">
         <f t="shared" si="47"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F270">
         <f t="shared" si="50"/>
@@ -25440,19 +25442,19 @@
       </c>
       <c r="G270">
         <f t="shared" si="52"/>
-        <v>33767</v>
+        <v>2147484647</v>
       </c>
       <c r="H270">
         <f t="shared" si="53"/>
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="I270">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>65538</v>
       </c>
       <c r="J270">
         <f t="shared" si="49"/>
-        <v>33767</v>
+        <v>2147484647</v>
       </c>
       <c r="K270" t="str">
         <f t="shared" si="54"/>
@@ -25464,11 +25466,11 @@
       </c>
       <c r="M270" t="str">
         <f t="shared" si="56"/>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N270" t="str">
         <f t="shared" si="51"/>
-        <v>testModAddSub16(1000, 32767, 32767, 1000, 1, true);</v>
+        <v>testModAddSub16(1000, 2147483647, 32767, 1001, 65538, false);  // Failing Case</v>
       </c>
     </row>
     <row r="271" spans="4:14" x14ac:dyDescent="0.25">
@@ -25478,7 +25480,7 @@
       </c>
       <c r="E271">
         <f t="shared" si="47"/>
-        <v>32767</v>
+        <v>2147483647</v>
       </c>
       <c r="F271">
         <f t="shared" si="50"/>
@@ -25486,19 +25488,19 @@
       </c>
       <c r="G271">
         <f t="shared" si="52"/>
-        <v>65534</v>
+        <v>2147516414</v>
       </c>
       <c r="H271">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271">
         <f t="shared" si="48"/>
-        <v>2</v>
+        <v>65539</v>
       </c>
       <c r="J271">
         <f t="shared" si="49"/>
-        <v>65534</v>
+        <v>2147516414</v>
       </c>
       <c r="K271" t="str">
         <f t="shared" si="54"/>
@@ -25510,17 +25512,17 @@
       </c>
       <c r="M271" t="str">
         <f>IF(G271&gt;L271, "Fail", "")</f>
-        <v/>
+        <v>Fail</v>
       </c>
       <c r="N271" t="str">
         <f>"testModAddSub16(" &amp; D271 &amp; ", " &amp; E271 &amp; ", " &amp; F271 &amp; ", " &amp; H271 &amp; ", " &amp; I271 &amp; ", " &amp; IF(M271="Fail", "false", "true") &amp; ");" &amp; IF(M271&lt;&gt;"", "  // Failing Case", "")</f>
-        <v>testModAddSub16(32767, 32767, 32767, 0, 2, true);</v>
+        <v>testModAddSub16(32767, 2147483647, 32767, 1, 65539, false);  // Failing Case</v>
       </c>
     </row>
     <row r="272" spans="4:14" x14ac:dyDescent="0.25">
       <c r="M272">
         <f>COUNTIF(M2:M271, "Fail")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Modulus</t>
   </si>
@@ -67,6 +68,12 @@
   </si>
   <si>
     <t>Intermediate Data Type Max</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Leap?</t>
   </si>
 </sst>
 </file>
@@ -389,9 +396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E177" sqref="E177"/>
+      <selection pane="bottomLeft" activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +562,7 @@
         <v>32767</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="7">IF(G3&gt;2^15-1, "Fail", "")</f>
+        <f t="shared" ref="M3" si="7">IF(G3&gt;2^15-1, "Fail", "")</f>
         <v/>
       </c>
       <c r="N3" t="str">
@@ -13126,7 +13133,7 @@
         <v>2147483647</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="6">IF(G3&gt;2^15-1, "Fail", "")</f>
+        <f t="shared" ref="M3" si="6">IF(G3&gt;2^15-1, "Fail", "")</f>
         <v/>
       </c>
       <c r="N3" t="str">
@@ -23195,7 +23202,7 @@
         <v>998</v>
       </c>
       <c r="I221">
-        <f t="shared" ref="I221:I272" si="48">INT(G221/F221)</f>
+        <f t="shared" ref="I221:I271" si="48">INT(G221/F221)</f>
         <v>0</v>
       </c>
       <c r="J221">
@@ -24935,11 +24942,11 @@
         <v>32767</v>
       </c>
       <c r="G259">
-        <f t="shared" ref="G259:G272" si="52">D259+E259</f>
+        <f t="shared" ref="G259:G271" si="52">D259+E259</f>
         <v>32827</v>
       </c>
       <c r="H259">
-        <f t="shared" ref="H259:H272" si="53">MOD(G259,F259)</f>
+        <f t="shared" ref="H259:H271" si="53">MOD(G259,F259)</f>
         <v>60</v>
       </c>
       <c r="I259">
@@ -25528,4 +25535,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>